--- a/table-template.xlsx
+++ b/table-template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Hostname</t>
   </si>
@@ -28,6 +28,9 @@
     <t>IP address</t>
   </si>
   <si>
+    <t>DNS</t>
+  </si>
+  <si>
     <t>Port</t>
   </si>
   <si>
@@ -58,16 +61,22 @@
     <t>Serial number</t>
   </si>
   <si>
+    <t>hostid</t>
+  </si>
+  <si>
     <t>TEST1</t>
   </si>
   <si>
     <t>Zabbix servers, test</t>
   </si>
   <si>
+    <t>Disabled</t>
+  </si>
+  <si>
     <t>10.10.14.1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Agent</t>
   </si>
   <si>
     <t xml:space="preserve">ICMP Ping, Linux by Zabbix agent
@@ -139,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -147,6 +156,9 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -159,7 +171,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -464,26 +482,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -499,13 +519,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -520,59 +540,67 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5">
         <v>10500</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
         <v>123456</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table-template.xlsx
+++ b/table-template.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Hostname</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Type (Agent/SNMP)</t>
   </si>
   <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>SNMP version</t>
+  </si>
+  <si>
     <t>Template</t>
   </si>
   <si>
@@ -64,7 +70,7 @@
     <t>hostid</t>
   </si>
   <si>
-    <t>TEST1</t>
+    <t>Linux server1</t>
   </si>
   <si>
     <t>Zabbix servers, test</t>
@@ -73,7 +79,7 @@
     <t>Disabled</t>
   </si>
   <si>
-    <t>10.10.14.1</t>
+    <t>10.10.10.10</t>
   </si>
   <si>
     <t>Agent</t>
@@ -98,7 +104,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>123</t>
+    <t>Linux server2</t>
+  </si>
+  <si>
+    <t>local.zabbix</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>ICMP Ping</t>
   </si>
 </sst>
 </file>
@@ -106,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +131,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -129,12 +150,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -148,25 +184,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -174,11 +204,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -202,31 +229,31 @@
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="ffffff" val="window"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -482,56 +509,58 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -540,67 +569,125 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>10500</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4">
+        <v>123456</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>123</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4">
+        <v>161</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4">
         <v>123456</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>123</v>
+      </c>
+      <c r="R3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
